--- a/PROPERTIES/SUNFLOWER/SUNFLOWER  2025.xlsx
+++ b/PROPERTIES/SUNFLOWER/SUNFLOWER  2025.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="250">
   <si>
     <t xml:space="preserve">SUNFLOWER APARTMENT JAN 30TH STATEMENT 2025</t>
   </si>
@@ -742,7 +742,28 @@
     <t xml:space="preserve">SALLY</t>
   </si>
   <si>
+    <t xml:space="preserve">000100032025070511213828585s7j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG875QFXT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG814BMURH</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYLVESTER NZINGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG59S41B1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/6/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFU9XKQIO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG46IV2ENS</t>
   </si>
   <si>
     <t xml:space="preserve">JOAN KAMAU</t>
@@ -771,7 +792,7 @@
     <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +928,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -915,7 +936,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -923,7 +944,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -931,21 +952,21 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -953,21 +974,29 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1" tint="0.15"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
@@ -975,7 +1004,7 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -983,7 +1012,7 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Georgia"/>
       <family val="1"/>
@@ -1058,7 +1087,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1351,6 +1380,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1447,6 +1480,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1455,19 +1492,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1487,15 +1532,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1507,11 +1552,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="27" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1527,7 +1572,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1543,11 +1592,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="26" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1555,15 +1604,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1571,7 +1620,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1599,7 +1648,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,7 +1656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1673,7 +1722,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -7797,7 +7846,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7816,725 +7865,760 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="72" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="72" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="72" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="72" width="47.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="72" width="39.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="73" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+    <row r="1" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="85" t="n">
+      <c r="C3" s="86" t="n">
         <v>790519395</v>
       </c>
-      <c r="D3" s="86" t="n">
+      <c r="D3" s="87" t="n">
         <v>16000</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="87" t="n">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="88" t="n">
         <v>16000</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="91" t="n">
+      <c r="C5" s="92" t="n">
         <v>726029386</v>
       </c>
-      <c r="D5" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="93"/>
+      <c r="D5" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="91" t="n">
+      <c r="C6" s="92" t="n">
         <v>743364151</v>
       </c>
-      <c r="D6" s="87" t="n">
+      <c r="D6" s="88" t="n">
         <v>19500</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="96" t="n">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="97" t="n">
         <v>19500</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="93"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="97" t="n">
+      <c r="C7" s="99" t="n">
         <v>708999514</v>
       </c>
-      <c r="D7" s="96" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
+      <c r="D7" s="97" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="89"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="93" t="n">
+        <v>45784</v>
+      </c>
+      <c r="O7" s="98" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="92" t="n">
         <v>703759351</v>
       </c>
-      <c r="D8" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99"/>
+      <c r="D8" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="100" t="n">
+        <v>45876</v>
+      </c>
+      <c r="O8" s="101" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="92" t="n">
         <v>792352751</v>
       </c>
-      <c r="D10" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K10" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="90"/>
+      <c r="D10" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K10" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="73" t="n">
+      <c r="C11" s="74" t="n">
         <v>702668920</v>
       </c>
-      <c r="D11" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="100"/>
+      <c r="D11" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="103"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="92" t="n">
         <v>722364736</v>
       </c>
-      <c r="D12" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="90"/>
+      <c r="D12" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="109" t="n">
+        <v>45876</v>
+      </c>
+      <c r="O12" s="105" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="106" t="n">
+      <c r="C13" s="110" t="n">
         <v>795080839</v>
       </c>
-      <c r="D13" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="107"/>
+      <c r="D13" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="89"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="107"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="109"/>
+      <c r="D15" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="91" t="n">
+      <c r="B16" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="92" t="n">
         <v>711447866</v>
       </c>
-      <c r="D16" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="111" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="113"/>
+      <c r="D16" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="115" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="117"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="91" t="n">
+      <c r="C17" s="92" t="n">
         <v>746412498</v>
       </c>
-      <c r="D17" s="111" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="90"/>
+      <c r="D17" s="115" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119" t="n">
+        <v>45876</v>
+      </c>
+      <c r="O17" s="105" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="116" t="n">
+      <c r="C18" s="120" t="n">
         <v>706281215</v>
       </c>
-      <c r="D18" s="111" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="109"/>
+      <c r="D18" s="115" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="113"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="109"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="113"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="91" t="n">
+      <c r="C20" s="92" t="n">
         <v>797417523</v>
       </c>
-      <c r="D20" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="119" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="90"/>
+      <c r="D20" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="124" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="126" t="s">
+        <v>243</v>
+      </c>
+      <c r="O20" s="105" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="122" t="n">
+      <c r="C21" s="127" t="n">
         <v>705299078</v>
       </c>
-      <c r="D21" s="123" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="126"/>
+      <c r="D21" s="128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129" t="n">
+        <v>22000</v>
+      </c>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="130" t="n">
+        <v>45754</v>
+      </c>
+      <c r="O21" s="131" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="91" t="n">
+      <c r="C22" s="92" t="n">
         <v>727762079</v>
       </c>
-      <c r="D22" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="100"/>
+      <c r="D22" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="122"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="91" t="n">
+      <c r="C23" s="92" t="n">
         <v>755108764</v>
       </c>
-      <c r="D23" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="90"/>
+      <c r="D23" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="91"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="90"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="91"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="116" t="n">
+      <c r="B25" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="120" t="n">
         <v>799850685</v>
       </c>
-      <c r="D25" s="87" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="O25" s="130"/>
+      <c r="D25" s="88" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="O25" s="135"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="116" t="n">
+      <c r="B26" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="120" t="n">
         <v>729757926</v>
       </c>
-      <c r="D26" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="87" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="130"/>
+      <c r="D26" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="88" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="135"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="91"/>
-      <c r="D27" s="87" t="n">
+      <c r="C27" s="92"/>
+      <c r="D27" s="88" t="n">
         <v>309500</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="129" t="n">
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="134" t="n">
         <f aca="false">SUM(H3:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="132"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="137"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="138"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="133"/>
+      <c r="C31" s="138"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="134"/>
+      <c r="C32" s="139"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="140" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="136"/>
+        <v>248</v>
+      </c>
+      <c r="C36" s="141"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="72" t="s">
@@ -8550,7 +8634,7 @@
       <c r="B39" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="137"/>
+      <c r="D39" s="142"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="72" t="s">
@@ -8561,15 +8645,15 @@
       <c r="B41" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="136"/>
+      <c r="C41" s="141"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="72" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="133"/>
+      <c r="C43" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PROPERTIES/SUNFLOWER/SUNFLOWER  2025.xlsx
+++ b/PROPERTIES/SUNFLOWER/SUNFLOWER  2025.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="255">
   <si>
     <t xml:space="preserve">SUNFLOWER APARTMENT JAN 30TH STATEMENT 2025</t>
   </si>
@@ -736,9 +736,18 @@
     <t xml:space="preserve">TOTAL PAYMENTS</t>
   </si>
   <si>
+    <t xml:space="preserve">REMARKS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAL/B-FORWAD</t>
   </si>
   <si>
+    <t xml:space="preserve">Called on 10/7/25, didn’t pick, twice. Third time picked &amp; said will pay, next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGA3CBBLBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SALLY</t>
   </si>
   <si>
@@ -751,6 +760,9 @@
     <t xml:space="preserve">TG814BMURH</t>
   </si>
   <si>
+    <t xml:space="preserve">TG41IZWHTF</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYLVESTER NZINGA</t>
   </si>
   <si>
@@ -766,10 +778,13 @@
     <t xml:space="preserve">TG46IV2ENS</t>
   </si>
   <si>
-    <t xml:space="preserve">JOAN KAMAU</t>
+    <t xml:space="preserve">Called on 10/7/25, picked </t>
   </si>
   <si>
     <t xml:space="preserve">WYCLIFFE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called on 10/7/25, said will pay later.</t>
   </si>
   <si>
     <t xml:space="preserve">MGNT COMM 5%</t>
@@ -792,7 +807,7 @@
     <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,15 +974,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FFFFBF00"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7030A0"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
@@ -976,6 +992,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00A933"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1019,7 +1042,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1053,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF262626"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1087,7 +1122,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1380,8 +1415,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1393,7 +1428,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1408,8 +1443,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1428,12 +1471,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1456,15 +1499,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1472,7 +1511,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1480,10 +1519,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1504,7 +1539,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,7 +1547,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1536,7 +1571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1544,7 +1579,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1552,7 +1587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="28" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1572,7 +1607,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,23 +1627,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="27" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,43 +1655,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1715,8 +1774,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -6851,7 +6910,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7843,17 +7902,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="72" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="72" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="72" width="17.56"/>
@@ -7866,10 +7925,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="72" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="72" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="72" width="39.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="73" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="72" width="44.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="72" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74"/>
       <c r="B1" s="75"/>
       <c r="C1" s="76"/>
@@ -7899,381 +7959,399 @@
       <c r="O1" s="75" t="s">
         <v>6</v>
       </c>
+      <c r="P1" s="80" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="78"/>
-      <c r="O2" s="84"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="72" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="86" t="n">
+      <c r="C3" s="88" t="n">
         <v>790519395</v>
       </c>
-      <c r="D3" s="87" t="n">
+      <c r="D3" s="89" t="n">
         <v>16000</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="88" t="n">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="90" t="n">
         <v>16000</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="92" t="n">
+      <c r="C5" s="88" t="n">
         <v>726029386</v>
       </c>
-      <c r="D5" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="94"/>
+      <c r="D5" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="94" t="n">
+        <v>45937</v>
+      </c>
+      <c r="O5" s="95" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="92" t="n">
+      <c r="C6" s="88" t="n">
         <v>743364151</v>
       </c>
-      <c r="D6" s="88" t="n">
+      <c r="D6" s="90" t="n">
         <v>19500</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="97" t="n">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="98" t="n">
         <v>19500</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>237</v>
+      <c r="B7" s="84" t="s">
+        <v>240</v>
       </c>
       <c r="C7" s="99" t="n">
         <v>708999514</v>
       </c>
-      <c r="D7" s="97" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97" t="n">
-        <v>12000</v>
-      </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="93" t="n">
+      <c r="D7" s="98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="91"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="94" t="n">
         <v>45784</v>
       </c>
-      <c r="O7" s="98" t="s">
-        <v>238</v>
+      <c r="O7" s="95" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="92" t="n">
+      <c r="C8" s="88" t="n">
         <v>703759351</v>
       </c>
-      <c r="D8" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="D8" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="100" t="n">
         <v>45876</v>
       </c>
       <c r="O8" s="101" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
       <c r="N9" s="102"/>
       <c r="O9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="92" t="n">
+      <c r="C10" s="88" t="n">
         <v>792352751</v>
       </c>
-      <c r="D10" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K10" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="D10" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K10" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="104"/>
       <c r="O10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="88" t="n">
         <v>702668920</v>
       </c>
-      <c r="D11" s="88" t="n">
+      <c r="D11" s="90" t="n">
         <v>22000</v>
       </c>
       <c r="E11" s="106"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="107"/>
       <c r="O11" s="103"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="92" t="n">
+      <c r="C12" s="88" t="n">
         <v>722364736</v>
       </c>
-      <c r="D12" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88" t="n">
+      <c r="D12" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90" t="n">
         <v>12000</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="108"/>
-      <c r="J12" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="109" t="n">
         <v>45876</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="84" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="110" t="n">
         <v>795080839</v>
       </c>
-      <c r="D13" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="111"/>
+      <c r="D13" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="107" t="n">
+        <v>45937</v>
+      </c>
+      <c r="O13" s="111" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="107"/>
       <c r="O14" s="111"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="D15" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="112"/>
       <c r="O15" s="113"/>
     </row>
@@ -8281,20 +8359,20 @@
       <c r="A16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="92" t="n">
+      <c r="B16" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="88" t="n">
         <v>711447866</v>
       </c>
-      <c r="D16" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="D16" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="115" t="n">
         <v>22000</v>
       </c>
@@ -8308,10 +8386,10 @@
       <c r="A17" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="92" t="n">
+      <c r="C17" s="88" t="n">
         <v>746412498</v>
       </c>
       <c r="D17" s="115" t="n">
@@ -8320,9 +8398,9 @@
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
       <c r="G17" s="115"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88" t="n">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90" t="n">
         <v>12000</v>
       </c>
       <c r="K17" s="118"/>
@@ -8332,14 +8410,14 @@
         <v>45876</v>
       </c>
       <c r="O17" s="105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="84" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="120" t="n">
@@ -8356,28 +8434,28 @@
       <c r="J18" s="115" t="n">
         <v>22000</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="121"/>
       <c r="O18" s="113"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="115"/>
       <c r="I19" s="115"/>
       <c r="J19" s="115"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="122"/>
       <c r="O19" s="113"/>
     </row>
@@ -8388,15 +8466,15 @@
       <c r="B20" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="92" t="n">
+      <c r="C20" s="88" t="n">
         <v>797417523</v>
       </c>
-      <c r="D20" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88" t="n">
+      <c r="D20" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90" t="n">
         <v>12000</v>
       </c>
       <c r="H20" s="115"/>
@@ -8408,17 +8486,17 @@
       <c r="L20" s="125"/>
       <c r="M20" s="125"/>
       <c r="N20" s="126" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O20" s="105" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="84" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="127" t="n">
@@ -8432,193 +8510,198 @@
       <c r="G21" s="129" t="n">
         <v>22000</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="130" t="n">
         <v>45754</v>
       </c>
       <c r="O21" s="131" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="92" t="n">
+      <c r="C22" s="88" t="n">
         <v>727762079</v>
       </c>
-      <c r="D22" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
+      <c r="D22" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="90" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="132"/>
       <c r="O22" s="122"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="92" t="n">
+      <c r="C23" s="88" t="n">
         <v>755108764</v>
       </c>
-      <c r="D23" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
+      <c r="D23" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="109"/>
-      <c r="O23" s="91"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="72" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="120"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
       <c r="N24" s="109"/>
-      <c r="O24" s="91"/>
+      <c r="O24" s="93"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="87" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="120" t="n">
-        <v>799850685</v>
-      </c>
-      <c r="D25" s="88" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="O25" s="135"/>
+        <v>96</v>
+      </c>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="139"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="82" t="s">
-        <v>247</v>
+      <c r="B26" s="84" t="s">
+        <v>251</v>
       </c>
       <c r="C26" s="120" t="n">
         <v>729757926</v>
       </c>
-      <c r="D26" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="88" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+      <c r="D26" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="90" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
       <c r="N26" s="100"/>
-      <c r="O26" s="135"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="72" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="92"/>
-      <c r="D27" s="88" t="n">
+      <c r="C27" s="88"/>
+      <c r="D27" s="90" t="n">
         <v>309500</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="134" t="n">
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="141" t="n">
         <f aca="false">SUM(H3:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="82"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="74"/>
       <c r="N27" s="74"/>
-      <c r="O27" s="137"/>
+      <c r="O27" s="143"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="138"/>
+      <c r="C30" s="144"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="144"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="139"/>
+      <c r="C32" s="145"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="146" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="141"/>
+        <v>253</v>
+      </c>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="72" t="s">
@@ -8634,7 +8717,7 @@
       <c r="B39" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="142"/>
+      <c r="D39" s="148"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="72" t="s">
@@ -8645,15 +8728,15 @@
       <c r="B41" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="141"/>
+      <c r="C41" s="147"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="72" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="138"/>
+      <c r="C43" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
